--- a/biology/Botanique/Vulpin_des_prés/Vulpin_des_prés.xlsx
+++ b/biology/Botanique/Vulpin_des_prés/Vulpin_des_prés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecurus pratensis
 Le Vulpin des prés (Alopecurus pratensis)  est une espèce de plantes monocotylédones vivaces de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Nomenclature et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce a été décrite et nommée Alopecurus pratensis par Linné en 1735 dans Species Plantarum 1 :60[2].
-Le nom générique Alopecurus est un mot latin  ălōpĕcūros, emprunté au grec ἀλωπέκουρος (alōpékouros) « queue de renard ». Le terme grec fut d’abord employé par Théophraste H.P. 7, 11 par allusion à la longue panicule soyeuse puis par Pline HN, XXI, 101[3] qui indique « l’alopécuros posède un épi mou, couvert d’un duvet dense, et ressemblant assez à une queue de renard, d’où son nom » ((Hist. Nat. XXI, 101).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce a été décrite et nommée Alopecurus pratensis par Linné en 1735 dans Species Plantarum 1 :60.
+Le nom générique Alopecurus est un mot latin  ălōpĕcūros, emprunté au grec ἀλωπέκουρος (alōpékouros) « queue de renard ». Le terme grec fut d’abord employé par Théophraste H.P. 7, 11 par allusion à la longue panicule soyeuse puis par Pline HN, XXI, 101 qui indique « l’alopécuros posède un épi mou, couvert d’un duvet dense, et ressemblant assez à une queue de renard, d’où son nom » ((Hist. Nat. XXI, 101).
 L'épithète spécifique pratensis est un mot latin dérivant de pratum « prè » et qui signifie « des prés ».
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon POWO[4], il existe deux synonymes
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon POWO, il existe deux synonymes
 Tozzettia pratensis (L.) Savi
 Tozzettia vulgaris Bubani</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,15 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 juillet 2018)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 juillet 2018) :
 Alopecurus pratensis subsp. alpestris (Wahlenb.) Selander (1950)
 Alopecurus pratensis subsp. laguriformis (Schur) Tzvelev (1971)
 Alopecurus pratensis subsp. pratensis
-Selon The Plant List            (2 juillet 2018)[6] :
+Selon The Plant List            (2 juillet 2018) :
 Alopecurus pratensis var. aquaticus (Dumort.) Mathieu</t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vulpin des prés est une graminées vivace qui pousse en touffes lâches ou denses. C'est une herbe à tiges dressées, de 40 à 80 cm de haut et jusqu’à 110 cm, à souche épaisse, oblique, courtement stolonifère.
 Les feuilles sont longues, larges de 3 à 7 mm et la gaine des feuilles supérieures est souvent un peu renflée.
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies humides atlantiques et subatlantiques.
 </t>
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,7 +706,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies méso-hygrophiles et bords de fossés.
 En France elle est spontanée dans les prairies permanentes de fauche, humides et acides.
@@ -698,7 +722,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,9 +740,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vulpin des prés est originaire d’une vaste région s’étendant de l’Europe à la Sibérie orientale (sauf la bande la plus orientale le long de la mer d’Okhotsk), Asie centrale, Mongolie, Caucase, Iran, Afghanistan[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vulpin des prés est originaire d’une vaste région s’étendant de l’Europe à la Sibérie orientale (sauf la bande la plus orientale le long de la mer d’Okhotsk), Asie centrale, Mongolie, Caucase, Iran, Afghanistan.
 Il a été introduit dans la majorité du territoire nord-américain, et quelques pays d’Amérique du Sud, la Sibérie la plus orientale, l’Australie.
 </t>
         </is>
@@ -730,7 +756,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,9 +774,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vulpin des prés est une plante fourragère des prairies naturelles et artificielles, mais rarement cultivée[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vulpin des prés est une plante fourragère des prairies naturelles et artificielles, mais rarement cultivée.
 Sa valeur fourragère est assez bonne, sa productivité est élevée ; par contre sa grande précocité de floraison entraine des refus du bétail.
 </t>
         </is>
@@ -762,7 +790,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vulpin_des_pr%C3%A9s</t>
+          <t>Vulpin_des_prés</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,7 +808,9 @@
           <t>Allergies au pollen</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Son pollen peut provoquer des allergies de type rhume des foins chez les personnes sensibles. Pour un risque allergique de 1 à 5, le Vulpin des prés est de niveau 5.
 </t>
